--- a/facam-python-basic/23th/test.xlsx
+++ b/facam-python-basic/23th/test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngkwangkim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngkwangkim/PycharmProjects/python-basic/facam-python-basic/23th/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D989EAB-44C1-B843-B9F5-D08FD3BB1038}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B784E44A-76B0-F745-B679-EF81C7FEE170}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1860" windowWidth="28300" windowHeight="17440" xr2:uid="{52957807-197D-6A4F-BD3F-6801271D00D9}"/>
+    <workbookView xWindow="20980" yWindow="6020" windowWidth="16280" windowHeight="11820" activeTab="1" xr2:uid="{52957807-197D-6A4F-BD3F-6801271D00D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +61,18 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9535D7-FD88-3146-ABE0-3221D2071CA2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -480,4 +493,64 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60917292-E435-4744-A99E-355803E17489}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>